--- a/EQWxxxx/JST Header Interface Standard.xlsx
+++ b/EQWxxxx/JST Header Interface Standard.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan.lee\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan.lee\Documents\GitHub\Altium\EQWxxxx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22905" windowHeight="5595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="11970" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Treadmill" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>JST 10 PIN</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>BIKE2</t>
+  </si>
+  <si>
+    <t>Boston1</t>
   </si>
 </sst>
 </file>
@@ -235,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,6 +290,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -782,7 +791,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -1241,18 +1250,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:D11"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="15.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1262,8 +1272,11 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1271,8 +1284,11 @@
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -1282,8 +1298,11 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1293,8 +1312,11 @@
       <c r="D5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1304,8 +1326,11 @@
       <c r="D6" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1315,8 +1340,11 @@
       <c r="D7" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -1326,8 +1354,11 @@
       <c r="D8" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -1337,8 +1368,11 @@
       <c r="D9" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>7</v>
       </c>
@@ -1348,8 +1382,11 @@
       <c r="D10" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>8</v>
       </c>
@@ -1358,6 +1395,9 @@
       </c>
       <c r="D11" s="3">
         <v>8</v>
+      </c>
+      <c r="E11" s="19">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
